--- a/data/trans_orig/CLASESOCIAL_Hogar_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_Hogar_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5A1B1F8-D60F-49B4-8A6C-19369A5B85A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8898C51-427C-4CF5-8CEA-7EF333987C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D85B65AC-967C-4ACD-9CFE-A948F5DC08FA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE33CBA2-4121-4993-9EC7-2EF5B9B72F63}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="475">
   <si>
     <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2012 (Tasa respuesta: 79,71%)</t>
   </si>
@@ -94,25 +94,28 @@
     <t>32,03%</t>
   </si>
   <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -121,25 +124,28 @@
     <t>67,97%</t>
   </si>
   <si>
-    <t>61,77%</t>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>70,68%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -160,7 +166,7 @@
     <t>49,43%</t>
   </si>
   <si>
-    <t>45,23%</t>
+    <t>45,53%</t>
   </si>
   <si>
     <t>53,32%</t>
@@ -169,19 +175,19 @@
     <t>44,93%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
   </si>
   <si>
     <t>47,37%</t>
   </si>
   <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
   </si>
   <si>
     <t>50,57%</t>
@@ -190,25 +196,25 @@
     <t>46,68%</t>
   </si>
   <si>
-    <t>54,77%</t>
+    <t>54,47%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
   </si>
   <si>
     <t>52,63%</t>
   </si>
   <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -217,7 +223,7 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -226,13 +232,16 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>51,52%</t>
   </si>
   <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
   </si>
   <si>
     <t>41,14%</t>
@@ -241,1264 +250,1219 @@
     <t>36,99%</t>
   </si>
   <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
     <t>45,36%</t>
   </si>
   <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2015 (Tasa respuesta: 80,51%)</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
   </si>
   <si>
     <t>49,77%</t>
   </si>
   <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>54,64%</t>
   </si>
   <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2015 (Tasa respuesta: 80,51%)</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
   </si>
   <si>
     <t>46,46%</t>
   </si>
   <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>50,87%</t>
   </si>
 </sst>
 </file>
@@ -1910,7 +1874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AD5CE4-EAF2-41B5-AD1D-CB2CC53B4A1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF215A53-D439-4C25-93A4-AB4C54228F93}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2100,13 +2064,13 @@
         <v>49307</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>124</v>
@@ -2115,19 +2079,19 @@
         <v>125640</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>155</v>
@@ -2136,13 +2100,13 @@
         <v>162012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>135</v>
@@ -2151,13 +2115,13 @@
         <v>140878</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>290</v>
@@ -2166,13 +2130,13 @@
         <v>302890</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,13 +2151,13 @@
         <v>238345</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>184</v>
@@ -2202,13 +2166,13 @@
         <v>190185</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>414</v>
@@ -2217,18 +2181,18 @@
         <v>428530</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2246,7 +2210,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2261,7 +2225,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2276,7 +2240,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2255,13 @@
         <v>318233</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>227</v>
@@ -2306,13 +2270,13 @@
         <v>244587</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>536</v>
@@ -2321,19 +2285,19 @@
         <v>562819</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>315</v>
@@ -2342,13 +2306,13 @@
         <v>325546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>282</v>
@@ -2357,13 +2321,13 @@
         <v>299812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>597</v>
@@ -2372,13 +2336,13 @@
         <v>625359</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2357,13 @@
         <v>643779</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>509</v>
@@ -2408,13 +2372,13 @@
         <v>544399</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1133</v>
@@ -2423,18 +2387,18 @@
         <v>1188178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2446,13 +2410,13 @@
         <v>2010</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2467,7 +2431,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -2476,13 +2440,13 @@
         <v>2010</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2461,13 @@
         <v>350108</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>240</v>
@@ -2512,13 +2476,13 @@
         <v>258355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>572</v>
@@ -2527,19 +2491,19 @@
         <v>608462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>316</v>
@@ -2548,13 +2512,13 @@
         <v>327491</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>347</v>
@@ -2563,13 +2527,13 @@
         <v>369675</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>663</v>
@@ -2578,13 +2542,13 @@
         <v>697165</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2563,13 @@
         <v>679609</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>587</v>
@@ -2614,13 +2578,13 @@
         <v>628030</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1236</v>
@@ -2629,18 +2593,18 @@
         <v>1307638</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2658,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2673,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2688,7 +2652,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2667,13 @@
         <v>292892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
@@ -2718,13 +2682,13 @@
         <v>188434</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>419</v>
@@ -2733,19 +2697,19 @@
         <v>481326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>286</v>
@@ -2754,13 +2718,13 @@
         <v>316347</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7">
         <v>250</v>
@@ -2769,13 +2733,13 @@
         <v>286600</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>536</v>
@@ -2784,13 +2748,13 @@
         <v>602947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2769,13 @@
         <v>609239</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>411</v>
@@ -2820,13 +2784,13 @@
         <v>475034</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>955</v>
@@ -2835,18 +2799,18 @@
         <v>1084273</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2864,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2894,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2873,13 @@
         <v>224656</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -2924,13 +2888,13 @@
         <v>73107</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>269</v>
@@ -2939,19 +2903,19 @@
         <v>297763</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>187</v>
@@ -2960,13 +2924,13 @@
         <v>203761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>166</v>
@@ -2975,13 +2939,13 @@
         <v>182718</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>353</v>
@@ -2990,13 +2954,13 @@
         <v>386479</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +2975,13 @@
         <v>428417</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>230</v>
@@ -3026,13 +2990,13 @@
         <v>255825</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>622</v>
@@ -3041,18 +3005,18 @@
         <v>684242</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3070,7 +3034,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3085,7 +3049,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3100,7 +3064,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3079,13 @@
         <v>223201</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -3130,13 +3094,13 @@
         <v>98805</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>282</v>
@@ -3145,19 +3109,19 @@
         <v>322006</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>311</v>
@@ -3166,13 +3130,13 @@
         <v>334448</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>234</v>
@@ -3181,13 +3145,13 @@
         <v>248496</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>545</v>
@@ -3196,13 +3160,13 @@
         <v>582944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3181,13 @@
         <v>557649</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>325</v>
@@ -3232,13 +3196,13 @@
         <v>347301</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>827</v>
@@ -3247,13 +3211,13 @@
         <v>904950</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3234,13 @@
         <v>2010</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3291,7 +3255,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3300,13 +3264,13 @@
         <v>2010</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3285,13 @@
         <v>1485422</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>832</v>
@@ -3336,13 +3300,13 @@
         <v>912595</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>2202</v>
@@ -3351,19 +3315,19 @@
         <v>2398017</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>1570</v>
@@ -3372,13 +3336,13 @@
         <v>1669605</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H30" s="7">
         <v>1414</v>
@@ -3387,13 +3351,13 @@
         <v>1528179</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M30" s="7">
         <v>2984</v>
@@ -3402,13 +3366,13 @@
         <v>3197785</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3387,13 @@
         <v>3157038</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>2246</v>
@@ -3438,13 +3402,13 @@
         <v>2440774</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>5187</v>
@@ -3453,18 +3417,18 @@
         <v>5597812</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3486,7 +3450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4076E14B-B382-46CA-9404-91313AC66D88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1ACFC1-1659-42F3-A244-640F375213CB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3503,7 +3467,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3616,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3625,13 +3589,13 @@
         <v>953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3640,13 +3604,13 @@
         <v>953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3625,13 @@
         <v>44907</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -3676,13 +3640,13 @@
         <v>33705</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>77</v>
@@ -3691,19 +3655,19 @@
         <v>78612</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>120</v>
@@ -3712,13 +3676,13 @@
         <v>127343</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>139</v>
@@ -3727,13 +3691,13 @@
         <v>135565</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M6" s="7">
         <v>259</v>
@@ -3742,13 +3706,13 @@
         <v>262908</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3727,13 @@
         <v>172250</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>175</v>
@@ -3778,13 +3742,13 @@
         <v>170223</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>337</v>
@@ -3793,18 +3757,18 @@
         <v>342473</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3822,7 +3786,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3837,7 +3801,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3852,7 +3816,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,7 +3831,7 @@
         <v>221248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>193</v>
@@ -3882,7 +3846,7 @@
         <v>197866</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>195</v>
@@ -3897,7 +3861,7 @@
         <v>419114</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>197</v>
@@ -3909,7 +3873,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>317</v>
@@ -3918,7 +3882,7 @@
         <v>331512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>199</v>
@@ -3933,7 +3897,7 @@
         <v>296413</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>201</v>
@@ -3948,7 +3912,7 @@
         <v>627924</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>203</v>
@@ -3969,13 +3933,13 @@
         <v>552760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>509</v>
@@ -3984,13 +3948,13 @@
         <v>494279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1038</v>
@@ -3999,18 +3963,18 @@
         <v>1047038</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4028,7 +3992,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4043,7 +4007,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4115,7 +4079,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>326</v>
@@ -4175,13 +4139,13 @@
         <v>667228</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>591</v>
@@ -4190,13 +4154,13 @@
         <v>589159</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1227</v>
@@ -4205,18 +4169,18 @@
         <v>1256387</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4228,7 +4192,7 @@
         <v>1125</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -4264,7 +4228,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4243,13 @@
         <v>281419</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>175</v>
@@ -4294,13 +4258,13 @@
         <v>189168</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -4315,13 +4279,13 @@
         <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>326</v>
@@ -4330,13 +4294,13 @@
         <v>360160</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H18" s="7">
         <v>301</v>
@@ -4345,13 +4309,13 @@
         <v>325084</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M18" s="7">
         <v>627</v>
@@ -4360,13 +4324,13 @@
         <v>685244</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4345,13 @@
         <v>642704</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>476</v>
@@ -4396,13 +4360,13 @@
         <v>514252</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1055</v>
@@ -4411,18 +4375,18 @@
         <v>1156956</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4434,13 +4398,13 @@
         <v>1132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4455,7 +4419,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4464,13 +4428,13 @@
         <v>1132</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,13 +4449,13 @@
         <v>211508</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -4500,13 +4464,13 @@
         <v>100427</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M21" s="7">
         <v>270</v>
@@ -4515,19 +4479,19 @@
         <v>311935</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>234</v>
@@ -4536,13 +4500,13 @@
         <v>261925</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
@@ -4551,13 +4515,13 @@
         <v>222903</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>431</v>
@@ -4566,13 +4530,13 @@
         <v>484828</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4551,13 @@
         <v>474565</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>281</v>
@@ -4602,13 +4566,13 @@
         <v>323330</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>702</v>
@@ -4617,18 +4581,18 @@
         <v>797895</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4646,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4661,7 +4625,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4676,7 +4640,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4655,13 @@
         <v>242252</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H25" s="7">
         <v>80</v>
@@ -4706,13 +4670,13 @@
         <v>100685</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>330</v>
@@ -4721,19 +4685,19 @@
         <v>342937</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>377</v>
@@ -4742,13 +4706,13 @@
         <v>349076</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H26" s="7">
         <v>223</v>
@@ -4757,13 +4721,13 @@
         <v>258596</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>600</v>
@@ -4772,13 +4736,13 @@
         <v>607672</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4757,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>303</v>
@@ -4808,13 +4772,13 @@
         <v>359281</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>930</v>
@@ -4823,13 +4787,13 @@
         <v>950609</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4810,13 @@
         <v>2257</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -4861,13 +4825,13 @@
         <v>953</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>83</v>
+        <v>287</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4876,13 +4840,13 @@
         <v>3210</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4861,13 @@
         <v>1328233</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H29" s="7">
         <v>837</v>
@@ -4912,13 +4876,13 @@
         <v>885451</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M29" s="7">
         <v>2089</v>
@@ -4927,19 +4891,19 @@
         <v>2213684</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>1700</v>
@@ -4948,13 +4912,13 @@
         <v>1770344</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H30" s="7">
         <v>1497</v>
@@ -4963,13 +4927,13 @@
         <v>1564120</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M30" s="7">
         <v>3197</v>
@@ -4978,13 +4942,13 @@
         <v>3334464</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4963,13 @@
         <v>3100834</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>2335</v>
@@ -5014,13 +4978,13 @@
         <v>2450524</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>5289</v>
@@ -5029,18 +4993,18 @@
         <v>5551358</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -5062,7 +5026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9398F5C7-5E8D-4B8E-B9CB-2F6CC23AFAB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1459B4-8372-4346-9EAA-F361321AD2C9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5079,7 +5043,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5186,13 +5150,13 @@
         <v>16368</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -5201,13 +5165,13 @@
         <v>27265</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -5216,13 +5180,13 @@
         <v>43633</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,10 +5201,10 @@
         <v>156135</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>319</v>
@@ -5258,7 +5222,7 @@
         <v>321</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>150</v>
@@ -5267,19 +5231,19 @@
         <v>302840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>96</v>
@@ -5288,13 +5252,13 @@
         <v>205176</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -5303,13 +5267,13 @@
         <v>180986</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M6" s="7">
         <v>207</v>
@@ -5318,13 +5282,13 @@
         <v>386163</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5303,13 @@
         <v>377679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -5354,13 +5318,13 @@
         <v>354957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -5369,18 +5333,18 @@
         <v>732636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5392,13 +5356,13 @@
         <v>8072</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -5407,13 +5371,13 @@
         <v>17782</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5422,13 +5386,13 @@
         <v>25855</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5407,13 @@
         <v>215593</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H9" s="7">
         <v>196</v>
@@ -5458,13 +5422,13 @@
         <v>218123</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M9" s="7">
         <v>335</v>
@@ -5473,19 +5437,19 @@
         <v>433716</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>156</v>
@@ -5494,13 +5458,13 @@
         <v>204731</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>248</v>
@@ -5509,13 +5473,13 @@
         <v>263310</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>404</v>
@@ -5524,13 +5488,13 @@
         <v>468041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5509,13 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -5560,13 +5524,13 @@
         <v>499215</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>763</v>
@@ -5575,18 +5539,18 @@
         <v>927611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5598,13 +5562,13 @@
         <v>5653</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>144</v>
+        <v>358</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -5613,13 +5577,13 @@
         <v>39405</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -5628,13 +5592,13 @@
         <v>45058</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5613,13 @@
         <v>293650</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>399</v>
@@ -5664,13 +5628,13 @@
         <v>283264</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>667</v>
@@ -5679,19 +5643,19 @@
         <v>576914</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>271</v>
@@ -5700,13 +5664,13 @@
         <v>257948</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>428</v>
@@ -5715,13 +5679,13 @@
         <v>287778</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>699</v>
@@ -5730,13 +5694,13 @@
         <v>545727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5715,13 @@
         <v>557252</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>848</v>
@@ -5766,13 +5730,13 @@
         <v>610447</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1394</v>
@@ -5781,18 +5745,18 @@
         <v>1167699</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5804,13 +5768,13 @@
         <v>19779</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -5819,13 +5783,13 @@
         <v>28502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -5834,13 +5798,13 @@
         <v>48280</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5819,13 @@
         <v>392937</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>525</v>
@@ -5870,13 +5834,13 @@
         <v>345980</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>859</v>
@@ -5885,19 +5849,19 @@
         <v>738917</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>311</v>
@@ -5906,13 +5870,13 @@
         <v>311275</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>405</v>
+        <v>273</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H18" s="7">
         <v>571</v>
@@ -5921,13 +5885,13 @@
         <v>372779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="M18" s="7">
         <v>882</v>
@@ -5936,13 +5900,13 @@
         <v>684054</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5921,13 @@
         <v>723990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1141</v>
@@ -5972,33 +5936,33 @@
         <v>747261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6010,13 +5974,13 @@
         <v>13587</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -6025,13 +5989,13 @@
         <v>26737</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -6040,13 +6004,13 @@
         <v>40324</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,13 +6025,13 @@
         <v>285719</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H21" s="7">
         <v>403</v>
@@ -6076,10 +6040,10 @@
         <v>239744</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>198</v>
@@ -6091,19 +6055,19 @@
         <v>525464</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>337</v>
@@ -6112,13 +6076,13 @@
         <v>300851</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>355</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>556</v>
@@ -6127,13 +6091,13 @@
         <v>330582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>893</v>
@@ -6142,13 +6106,13 @@
         <v>631433</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>47</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6127,13 @@
         <v>600157</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>1002</v>
@@ -6178,13 +6142,13 @@
         <v>597063</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>1665</v>
@@ -6193,18 +6157,18 @@
         <v>1197220</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6216,13 +6180,13 @@
         <v>15216</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="H24" s="7">
         <v>193</v>
@@ -6231,13 +6195,13 @@
         <v>112110</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="M24" s="7">
         <v>217</v>
@@ -6246,13 +6210,13 @@
         <v>127326</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,16 +6228,16 @@
         <v>487</v>
       </c>
       <c r="D25" s="7">
-        <v>330752</v>
+        <v>330753</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="H25" s="7">
         <v>563</v>
@@ -6282,13 +6246,13 @@
         <v>423255</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="M25" s="7">
         <v>1050</v>
@@ -6297,34 +6261,34 @@
         <v>754007</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>517</v>
       </c>
       <c r="D26" s="7">
-        <v>351786</v>
+        <v>351787</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>952</v>
@@ -6333,13 +6297,13 @@
         <v>491272</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>105</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>1469</v>
@@ -6348,13 +6312,13 @@
         <v>843059</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,16 +6330,16 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1708</v>
@@ -6384,13 +6348,13 @@
         <v>1026637</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2736</v>
@@ -6399,13 +6363,13 @@
         <v>1724392</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,13 +6386,13 @@
         <v>78675</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>332</v>
@@ -6437,13 +6401,13 @@
         <v>251801</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>413</v>
@@ -6452,13 +6416,13 @@
         <v>330476</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6437,13 @@
         <v>1674786</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>2169</v>
@@ -6488,34 +6452,34 @@
         <v>1657072</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>389</v>
       </c>
       <c r="M29" s="7">
         <v>3776</v>
       </c>
       <c r="N29" s="7">
-        <v>3331858</v>
+        <v>3331857</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>1688</v>
@@ -6524,13 +6488,13 @@
         <v>1631768</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="H30" s="7">
         <v>2866</v>
@@ -6539,28 +6503,28 @@
         <v>1926708</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M30" s="7">
         <v>4554</v>
       </c>
       <c r="N30" s="7">
-        <v>3558476</v>
+        <v>3558475</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6539,13 @@
         <v>3385228</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H31" s="7">
         <v>5367</v>
@@ -6590,33 +6554,33 @@
         <v>3835581</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M31" s="7">
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/CLASESOCIAL_Hogar_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_Hogar_R-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8898C51-427C-4CF5-8CEA-7EF333987C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B352F13-93CC-4385-B9CF-30F25287BCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE33CBA2-4121-4993-9EC7-2EF5B9B72F63}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61BA5B6E-992B-4860-B345-ED3B460F7766}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="477">
   <si>
     <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2012 (Tasa respuesta: 79,71%)</t>
   </si>
@@ -94,28 +94,28 @@
     <t>32,03%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
   </si>
   <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,28 +124,28 @@
     <t>67,97%</t>
   </si>
   <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
   </si>
   <si>
     <t>70,68%</t>
   </si>
   <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -166,55 +166,55 @@
     <t>49,43%</t>
   </si>
   <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
   </si>
   <si>
     <t>47,37%</t>
   </si>
   <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
   </si>
   <si>
     <t>50,57%</t>
   </si>
   <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
   </si>
   <si>
     <t>52,63%</t>
   </si>
   <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -223,7 +223,7 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -232,1119 +232,1131 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>0,62%</t>
   </si>
   <si>
     <t>51,52%</t>
   </si>
   <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
     <t>47,53%</t>
   </si>
   <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2016 (Tasa respuesta: 80,51%)</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
   </si>
   <si>
     <t>50,22%</t>
   </si>
   <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2015 (Tasa respuesta: 80,51%)</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
   </si>
   <si>
     <t>42,98%</t>
   </si>
   <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>Clase social manual del hogar (la mayor de entre la persona entrevistada y la de más ingresos del hogar; clases de I a V, SEE) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
     <t>41,23%</t>
   </si>
   <si>
@@ -1366,9 +1378,6 @@
     <t>50,42%</t>
   </si>
   <si>
-    <t>47,52%</t>
-  </si>
-  <si>
     <t>53,53%</t>
   </si>
   <si>
@@ -1442,9 +1451,6 @@
   </si>
   <si>
     <t>45,42%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
   </si>
   <si>
     <t>50,23%</t>
@@ -1874,7 +1880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF215A53-D439-4C25-93A4-AB4C54228F93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4CEFB5-0B09-4B5D-9C34-ECCA7AA0C513}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2467,7 +2473,7 @@
         <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>240</v>
@@ -2476,13 +2482,13 @@
         <v>258355</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>572</v>
@@ -2491,13 +2497,13 @@
         <v>608462</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2518,13 @@
         <v>327491</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>347</v>
@@ -2527,13 +2533,13 @@
         <v>369675</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>663</v>
@@ -2542,13 +2548,13 @@
         <v>697165</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2622,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2637,7 +2643,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2652,7 +2658,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2673,13 @@
         <v>292892</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>161</v>
@@ -2682,13 +2688,13 @@
         <v>188434</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>419</v>
@@ -2697,13 +2703,13 @@
         <v>481326</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2724,13 @@
         <v>316347</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H18" s="7">
         <v>250</v>
@@ -2733,13 +2739,13 @@
         <v>286600</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>536</v>
@@ -2748,13 +2754,13 @@
         <v>602947</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,7 +2816,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2828,7 +2834,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2873,13 +2879,13 @@
         <v>224656</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -2888,13 +2894,13 @@
         <v>73107</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>269</v>
@@ -2903,13 +2909,13 @@
         <v>297763</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2930,13 @@
         <v>203761</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>166</v>
@@ -2939,13 +2945,13 @@
         <v>182718</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>353</v>
@@ -2954,13 +2960,13 @@
         <v>386479</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,7 +3022,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3049,7 +3055,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3064,7 +3070,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3085,13 @@
         <v>223201</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>91</v>
@@ -3094,13 +3100,13 @@
         <v>98805</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>282</v>
@@ -3109,13 +3115,13 @@
         <v>322006</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3136,13 @@
         <v>334448</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>234</v>
@@ -3145,13 +3151,13 @@
         <v>248496</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="M26" s="7">
         <v>545</v>
@@ -3160,13 +3166,13 @@
         <v>582944</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3240,13 @@
         <v>2010</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3255,7 +3261,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3264,13 +3270,13 @@
         <v>2010</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3291,13 @@
         <v>1485422</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H29" s="7">
         <v>832</v>
@@ -3300,13 +3306,13 @@
         <v>912595</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M29" s="7">
         <v>2202</v>
@@ -3315,13 +3321,13 @@
         <v>2398017</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3342,13 @@
         <v>1669605</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H30" s="7">
         <v>1414</v>
@@ -3351,13 +3357,13 @@
         <v>1528179</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M30" s="7">
         <v>2984</v>
@@ -3366,13 +3372,13 @@
         <v>3197785</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,7 +3434,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3450,7 +3456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1ACFC1-1659-42F3-A244-640F375213CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CE92AF-3168-4F02-BAA8-865463CBB58E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3467,7 +3473,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3580,7 +3586,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3589,13 +3595,13 @@
         <v>953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3604,13 +3610,13 @@
         <v>953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3631,13 @@
         <v>44907</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -3640,13 +3646,13 @@
         <v>33705</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>77</v>
@@ -3655,13 +3661,13 @@
         <v>78612</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3682,13 @@
         <v>127343</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>139</v>
@@ -3691,13 +3697,13 @@
         <v>135565</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M6" s="7">
         <v>259</v>
@@ -3706,13 +3712,13 @@
         <v>262908</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,7 +3792,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3816,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,7 +3837,7 @@
         <v>221248</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>193</v>
@@ -3846,7 +3852,7 @@
         <v>197866</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>195</v>
@@ -3861,7 +3867,7 @@
         <v>419114</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>197</v>
@@ -3882,7 +3888,7 @@
         <v>331512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>199</v>
@@ -3897,7 +3903,7 @@
         <v>296413</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>201</v>
@@ -3912,7 +3918,7 @@
         <v>627924</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>203</v>
@@ -4007,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4180,7 +4186,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4192,7 +4198,7 @@
         <v>1125</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -4228,7 +4234,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4249,13 @@
         <v>281419</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>175</v>
@@ -4258,13 +4264,13 @@
         <v>189168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -4273,13 +4279,13 @@
         <v>470587</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4300,13 @@
         <v>360160</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>236</v>
+        <v>135</v>
       </c>
       <c r="H18" s="7">
         <v>301</v>
@@ -4309,13 +4315,13 @@
         <v>325084</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M18" s="7">
         <v>627</v>
@@ -4324,13 +4330,13 @@
         <v>685244</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,7 +4392,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4398,13 +4404,13 @@
         <v>1132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4419,7 +4425,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4428,13 +4434,13 @@
         <v>1132</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4455,13 @@
         <v>211508</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -4464,13 +4470,13 @@
         <v>100427</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M21" s="7">
         <v>270</v>
@@ -4479,13 +4485,13 @@
         <v>311935</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4506,13 @@
         <v>261925</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>197</v>
@@ -4515,13 +4521,13 @@
         <v>222903</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>431</v>
@@ -4530,13 +4536,13 @@
         <v>484828</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,7 +4598,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4625,7 +4631,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4640,7 +4646,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4661,13 @@
         <v>242252</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="H25" s="7">
         <v>80</v>
@@ -4709,10 +4715,10 @@
         <v>277</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H26" s="7">
         <v>223</v>
@@ -4721,7 +4727,7 @@
         <v>258596</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>280</v>
@@ -4816,7 +4822,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -4825,13 +4831,13 @@
         <v>953</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -4840,13 +4846,13 @@
         <v>3210</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4867,13 @@
         <v>1328233</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H29" s="7">
         <v>837</v>
@@ -4876,13 +4882,13 @@
         <v>885451</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M29" s="7">
         <v>2089</v>
@@ -4891,13 +4897,13 @@
         <v>2213684</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4918,13 @@
         <v>1770344</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="H30" s="7">
         <v>1497</v>
@@ -4927,13 +4933,13 @@
         <v>1564120</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M30" s="7">
         <v>3197</v>
@@ -4942,13 +4948,13 @@
         <v>3334464</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,7 +5010,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5026,7 +5032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1459B4-8372-4346-9EAA-F361321AD2C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F1FB73-EDAD-412B-8FB8-02C920A5E43F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5043,7 +5049,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5150,13 +5156,13 @@
         <v>16368</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -5165,13 +5171,13 @@
         <v>27265</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -5180,13 +5186,13 @@
         <v>43633</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5207,13 @@
         <v>156135</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -5216,13 +5222,13 @@
         <v>146706</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>150</v>
@@ -5231,13 +5237,13 @@
         <v>302840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5258,13 @@
         <v>205176</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H6" s="7">
         <v>111</v>
@@ -5267,13 +5273,13 @@
         <v>180986</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M6" s="7">
         <v>207</v>
@@ -5282,13 +5288,13 @@
         <v>386163</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5362,13 @@
         <v>8072</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -5371,13 +5377,13 @@
         <v>17782</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -5386,13 +5392,13 @@
         <v>25855</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5413,13 @@
         <v>215593</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H9" s="7">
         <v>196</v>
@@ -5422,13 +5428,13 @@
         <v>218123</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M9" s="7">
         <v>335</v>
@@ -5437,13 +5443,13 @@
         <v>433716</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5464,13 @@
         <v>204731</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>248</v>
@@ -5473,13 +5479,13 @@
         <v>263310</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>404</v>
@@ -5488,13 +5494,13 @@
         <v>468041</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5568,13 @@
         <v>5653</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -5577,13 +5583,13 @@
         <v>39405</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -5592,13 +5598,13 @@
         <v>45058</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5619,13 @@
         <v>293650</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>399</v>
@@ -5628,13 +5634,13 @@
         <v>283264</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>667</v>
@@ -5643,13 +5649,13 @@
         <v>576914</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5670,13 @@
         <v>257948</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>428</v>
@@ -5679,10 +5685,10 @@
         <v>287778</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>377</v>
@@ -5697,10 +5703,10 @@
         <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,7 +5762,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5768,13 +5774,13 @@
         <v>19779</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -5783,13 +5789,13 @@
         <v>28502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -5798,13 +5804,13 @@
         <v>48280</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5825,13 @@
         <v>392937</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>525</v>
@@ -5834,13 +5840,13 @@
         <v>345980</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>859</v>
@@ -5849,13 +5855,13 @@
         <v>738917</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5876,13 @@
         <v>311275</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H18" s="7">
         <v>571</v>
@@ -5885,13 +5891,13 @@
         <v>372779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M18" s="7">
         <v>882</v>
@@ -5900,13 +5906,13 @@
         <v>684054</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,7 +5968,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5974,13 +5980,13 @@
         <v>13587</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5989,13 +5995,13 @@
         <v>26737</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -6004,13 +6010,13 @@
         <v>40324</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +6031,13 @@
         <v>285719</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H21" s="7">
         <v>403</v>
@@ -6040,13 +6046,13 @@
         <v>239744</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="M21" s="7">
         <v>715</v>
@@ -6055,13 +6061,13 @@
         <v>525464</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,13 +6082,13 @@
         <v>300851</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H22" s="7">
         <v>556</v>
@@ -6091,13 +6097,13 @@
         <v>330582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>893</v>
@@ -6106,13 +6112,13 @@
         <v>631433</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,7 +6174,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6180,13 +6186,13 @@
         <v>15216</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="H24" s="7">
         <v>193</v>
@@ -6195,13 +6201,13 @@
         <v>112110</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M24" s="7">
         <v>217</v>
@@ -6210,13 +6216,13 @@
         <v>127326</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,13 +6237,13 @@
         <v>330753</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>433</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>258</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>563</v>
@@ -6246,13 +6252,13 @@
         <v>423255</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>1050</v>
@@ -6261,13 +6267,13 @@
         <v>754007</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,13 +6288,13 @@
         <v>351787</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>94</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H26" s="7">
         <v>952</v>
@@ -6297,13 +6303,13 @@
         <v>491272</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M26" s="7">
         <v>1469</v>
@@ -6312,13 +6318,13 @@
         <v>843059</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6392,13 @@
         <v>78675</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H28" s="7">
         <v>332</v>
@@ -6401,13 +6407,13 @@
         <v>251801</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M28" s="7">
         <v>413</v>
@@ -6416,13 +6422,13 @@
         <v>330476</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6443,13 @@
         <v>1674786</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>433</v>
+        <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>2169</v>
@@ -6452,13 +6458,13 @@
         <v>1657072</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M29" s="7">
         <v>3776</v>
@@ -6467,13 +6473,13 @@
         <v>3331857</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,13 +6494,13 @@
         <v>1631768</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>468</v>
+        <v>259</v>
       </c>
       <c r="H30" s="7">
         <v>2866</v>
@@ -6503,13 +6509,13 @@
         <v>1926708</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M30" s="7">
         <v>4554</v>
@@ -6518,13 +6524,13 @@
         <v>3558475</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,7 +6586,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
